--- a/medicine/Enfance/Countee_Cullen/Countee_Cullen.xlsx
+++ b/medicine/Enfance/Countee_Cullen/Countee_Cullen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Countee Leroy Porter Cullen, probablement né le 30 mai 1903, à Louisville (Kentucky) ou à New York, voire Baltimore (Maryland) — les sources divergent —, et mort à New York, le 9 janvier 1946, est un écrivain américain. Il est l'une des figures majeures de la Renaissance de Harlem.
 </t>
@@ -513,25 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Countee Leroy Porter est né le 30 mai 1903. Son lieu de naissance est incertain. La plupart des sources indiquent Louisville, dans le Kentucky, aux États-Unis[4] ; d'autres sources suggèrent qu'il serait né à New York ou à Baltimore, dans le Maryland. La question de son lieu de naissance est liée également au fait que l'on ne connait pas ses parents de façon précise. Il est né d'un père inconnu. D'après le Centre de recherche Amistad de l'université Tulane, sa mère serait une certaine Elizabeth Thomas Lucason, née en 1885 et morte en 1940. Elle l'aurait abandonné à sa naissance. On sait seulement avec certitude qu'il a été élevé par Amanda Porter, qui serait sa grand-mère. Il est inscrit à l'école primaire, la Public school 27 de Paterson dans le New Jersey, sous le nom de Countee L. Porter[5],[6],[7].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Countee Leroy Porter est né le 30 mai 1903. Son lieu de naissance est incertain. La plupart des sources indiquent Louisville, dans le Kentucky, aux États-Unis ; d'autres sources suggèrent qu'il serait né à New York ou à Baltimore, dans le Maryland. La question de son lieu de naissance est liée également au fait que l'on ne connait pas ses parents de façon précise. Il est né d'un père inconnu. D'après le Centre de recherche Amistad de l'université Tulane, sa mère serait une certaine Elizabeth Thomas Lucason, née en 1885 et morte en 1940. Elle l'aurait abandonné à sa naissance. On sait seulement avec certitude qu'il a été élevé par Amanda Porter, qui serait sa grand-mère. Il est inscrit à l'école primaire, la Public school 27 de Paterson dans le New Jersey, sous le nom de Countee L. Porter.
 À l'âge de neuf ans, il emménage avec sa grand-mère à Harlem, à New York, dans un appartement à proximité de la congrégation Salem appartenant à l'église méthodiste.
-En 1918, quand sa grand-mère meurt, il est adopté par le pasteur de l'église Salem, le révérend Frederick Asbury Cullen (en)[8] et son épouse Carolyn Belle Mitchell Cullen, c'est ainsi qu'il porte le nom de Cullen[9].
+En 1918, quand sa grand-mère meurt, il est adopté par le pasteur de l'église Salem, le révérend Frederick Asbury Cullen (en) et son épouse Carolyn Belle Mitchell Cullen, c'est ainsi qu'il porte le nom de Cullen.
 Il suit ses études secondaires à la DeWitt Clinton High School du Bronx, où il se montre brillant élève particulièrement en latin, grec ancien, mathématiques et français.
 En 1922, Countee Cullen est admis à l'université de New York. Il y obtient son Bachelor of Arts (licence) en 1925.
-Il poursuit ses études à l'université Harvard où, en 1926, il soutient avec succès son Master of Arts (mastère 2) de littérature anglaise. Par la suite, il retourne à New York où il commence à publier des poèmes dans Opportunity, le magazine de la National Urban League où il tient la rubrique "littérature afro-américaine"[10],[11],[12].
-En 1928, Countee Cullen est le second Afro-Américain à obtenir une bourse de la Fondation John-Simon-Guggenheim[13].
-Carrière
-En 1925, il publie son premier recueil Color. L'un des poèmes, Simon the Cyrenian Speaks (Simon le cyrénéen parle), reprend le passage évangélique de Matthieu chapitre 27, verset 32, afin de suggérer une analogie entre les Afro-Américains et Simon, l'homme qui a été contraint de porter la croix du Christ sur son dos. Un autre poème, Incident, expose l'expérience d'un enfant de huit ans horrifié par le racisme[14].
-En 1935, il publie The Medea and Some Other Poems. De ce recueil, émerge un poème Any Human to Another qui traite de la condition humaine et de la question de l'égalité[15],[16].
-Countee Cullen est l'auteur d'un unique roman, One Way to Heaven (1931), et d'un populaire ouvrage de littérature d'enfance et de jeunesse intitulé The Lost Zoo (1940).
-Archives
-Les archives de Countee Cullen sont déposées et consultables auprès de l'Amistad Research Center (en) (Centre de recherche Amistad) situé à la Nouvelle Orléans[17],[7].
-Sa correspondance avec Harold Jackman, la Countee Cullen-Harold Jackman Memorial Collection, est déposée à la bibliothèque Robert W. Woodruff (en), de l'Atlanta University Center (en) à Atlanta[18],[19].
-Vie privée
-En 1928,  Countee Cullen épouse Yolande Du Bois (en), la fille de W.E.B. Du Bois. Les époux divorcent deux ans plus tard. C'est à l'occasion du divorce que son beau-père apprend ses penchants homosexuels[20],[21],[13].
-En 1940, il épouse Ida Mae Robertson, qui restera avec lui jusqu'à sa mort et créera la fondation Countee Cullen. Grâce à elle, en 1951, l'antenne de la New York Public Library de la 135ème rue, située à Harlem, devient la Countee Cullen Library [22],[23],[24],[25].
-Countee Cullen repose au cimetière de Woodlawn dans le Bronx[26].
+Il poursuit ses études à l'université Harvard où, en 1926, il soutient avec succès son Master of Arts (mastère 2) de littérature anglaise. Par la suite, il retourne à New York où il commence à publier des poèmes dans Opportunity, le magazine de la National Urban League où il tient la rubrique "littérature afro-américaine".
+En 1928, Countee Cullen est le second Afro-Américain à obtenir une bourse de la Fondation John-Simon-Guggenheim.
 </t>
         </is>
       </c>
@@ -557,28 +563,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvres</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres complètes
-My Soul's High Song: The Collected Writings, New York, Anchor Books, 1er décembre 1990, 618 p. (ISBN 9780385412957, lire en ligne),
-Recueils de poésie
-Color, Ayer Company Publ,, 1 janvier 1925, rééd. 1999, 108 pages (ISBN 9780881431551, lire en ligne),
-Copper Sun, New York, Harper &amp;  Bros, 1927, 89 p. (OCLC 253174535, lire en ligne),
-On These I Stand, New York, HarperCollins Publishers, 1927, rééd. 28 mars 1937, 197 p. (ISBN 9780060109257),
-The ballad of the brown girl: An old ballad retold, Harper &amp; Brothers, 1927[27]
-The black Christ &amp; other poems, Harper &amp; Brothers, 1929, rééd. 1975, 132 p. (OCLC 317070004, lire en ligne)[28],
-The Medea and Some Poems, New York, Harper &amp; Brothers, 1935, 97 p. (OCLC 474816409)[29],
-Collected Poems, New york, Library of America, 14 octobre 2010, 200 p. (ISBN 9781598530834),
-Roman
-One Way to Heaven, New York, Harper &amp; Brothers, 1932, rééd. 1975, 280 p. (ISBN 9780404113834, lire en ligne),
-Littérature d'enfance et de jeunesse
-The Lost Zoo  (ill. Brian Pinkney), Englewood Cliffs, New Jersey, Harper &amp; Bros, Silver Burdett Press, 1940, rééd. 1992, 95 p. (ISBN 9780382242557),
-My Lives &amp; How I Lost Them, New York, Harper &amp; Bros., 1942 (réimpr. 1993, aux éditions Silver Burdett Press), 160 p. (ISBN 9780382243691)
-Comédie musicale
-Librettiste de la comédie musicale St. Louis Woman (en) avec Arna Bontemps qui est jouée du 30 mars 1946 au 6 juillet 1946 à Broadway au Martin Beck Theatre[30],[31],[32].</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1925, il publie son premier recueil Color. L'un des poèmes, Simon the Cyrenian Speaks (Simon le cyrénéen parle), reprend le passage évangélique de Matthieu chapitre 27, verset 32, afin de suggérer une analogie entre les Afro-Américains et Simon, l'homme qui a été contraint de porter la croix du Christ sur son dos. Un autre poème, Incident, expose l'expérience d'un enfant de huit ans horrifié par le racisme.
+En 1935, il publie The Medea and Some Other Poems. De ce recueil, émerge un poème Any Human to Another qui traite de la condition humaine et de la question de l'égalité,.
+Countee Cullen est l'auteur d'un unique roman, One Way to Heaven (1931), et d'un populaire ouvrage de littérature d'enfance et de jeunesse intitulé The Lost Zoo (1940).
+</t>
         </is>
       </c>
     </row>
@@ -603,14 +602,280 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Archives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les archives de Countee Cullen sont déposées et consultables auprès de l'Amistad Research Center (en) (Centre de recherche Amistad) situé à la Nouvelle Orléans,.
+Sa correspondance avec Harold Jackman, la Countee Cullen-Harold Jackman Memorial Collection, est déposée à la bibliothèque Robert W. Woodruff (en), de l'Atlanta University Center (en) à Atlanta,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1928,  Countee Cullen épouse Yolande Du Bois (en), la fille de W.E.B. Du Bois. Les époux divorcent deux ans plus tard. C'est à l'occasion du divorce que son beau-père apprend ses penchants homosexuels.
+En 1940, il épouse Ida Mae Robertson, qui restera avec lui jusqu'à sa mort et créera la fondation Countee Cullen. Grâce à elle, en 1951, l'antenne de la New York Public Library de la 135ème rue, située à Harlem, devient la Countee Cullen Library .
+Countee Cullen repose au cimetière de Woodlawn dans le Bronx.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres complètes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>My Soul's High Song: The Collected Writings, New York, Anchor Books, 1er décembre 1990, 618 p. (ISBN 9780385412957, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de poésie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Color, Ayer Company Publ 1 janvier 1925, rééd. 1999, 108 pages (ISBN 9780881431551, lire en ligne),
+Copper Sun, New York, Harper &amp;  Bros, 1927, 89 p. (OCLC 253174535, lire en ligne),
+On These I Stand, New York, HarperCollins Publishers, 1927, rééd. 28 mars 1937, 197 p. (ISBN 9780060109257),
+The ballad of the brown girl: An old ballad retold, Harper &amp; Brothers, 1927
+The black Christ &amp; other poems, Harper &amp; Brothers, 1929, rééd. 1975, 132 p. (OCLC 317070004, lire en ligne),
+The Medea and Some Poems, New York, Harper &amp; Brothers, 1935, 97 p. (OCLC 474816409),
+Collected Poems, New york, Library of America, 14 octobre 2010, 200 p. (ISBN 9781598530834),</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>One Way to Heaven, New York, Harper &amp; Brothers, 1932, rééd. 1975, 280 p. (ISBN 9780404113834, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Lost Zoo  (ill. Brian Pinkney), Englewood Cliffs, New Jersey, Harper &amp; Bros, Silver Burdett Press, 1940, rééd. 1992, 95 p. (ISBN 9780382242557),
+My Lives &amp; How I Lost Them, New York, Harper &amp; Bros., 1942 (réimpr. 1993, aux éditions Silver Burdett Press), 160 p. (ISBN 9780382243691)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Comédie musicale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Librettiste de la comédie musicale St. Louis Woman (en) avec Arna Bontemps qui est jouée du 30 mars 1946 au 6 juillet 1946 à Broadway au Martin Beck Theatre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Countee_Cullen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1925 : lauréat du Witter Bynner Prize Undergraduate Award, décerné par la Poetry Society of America et le magazine Palms Poetry, qui récompense des étudiants pour leur excellence dans la poésie[33],[34],[35].
-1928 : boursier de la Fondation John-Simon-Guggenheim[36].
-2013 : cérémonie d'inscription au New York State Writers Hall of Fame (en)[37].</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1925 : lauréat du Witter Bynner Prize Undergraduate Award, décerné par la Poetry Society of America et le magazine Palms Poetry, qui récompense des étudiants pour leur excellence dans la poésie.
+1928 : boursier de la Fondation John-Simon-Guggenheim.
+2013 : cérémonie d'inscription au New York State Writers Hall of Fame (en).</t>
         </is>
       </c>
     </row>
